--- a/liste des test.xlsx
+++ b/liste des test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seemt\Desktop\HEIG-VD\Semestre3\POO\Labo\Labo8\Labo8\POO-Labo_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23978FD0-8501-4FC3-815E-DBFE938F37FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E4A0D-35BF-475C-A76A-BC1352835018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{477B09BC-C81F-481D-B86E-8C2C2F190558}"/>
   </bookViews>
@@ -33,6 +33,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Test déplacement pion</t>
+  </si>
+  <si>
+    <t>Avancer un pion de 1</t>
+  </si>
+  <si>
+    <t>Avancer un pion de 2 au premier coup</t>
+  </si>
+  <si>
+    <t>Avancer un pion de 1 puit de 2</t>
+  </si>
+  <si>
+    <t>Action effectuée</t>
+  </si>
+  <si>
+    <t>Résultat attendu</t>
+  </si>
+  <si>
+    <t>Résultat obtenu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -44,15 +70,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,12 +92,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +429,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D944D000-6100-4BF9-8EA9-1B2AEDF837AE}">
-  <dimension ref="A1"/>
+  <dimension ref="D6:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="30.734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1015625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/liste des test.xlsx
+++ b/liste des test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seemt\Desktop\HEIG-VD\Semestre3\POO\Labo\Labo8\Labo8\POO-Labo_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E4A0D-35BF-475C-A76A-BC1352835018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D0258-7A21-4390-90C6-4065389DA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{477B09BC-C81F-481D-B86E-8C2C2F190558}"/>
   </bookViews>
@@ -70,21 +70,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,9 +87,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -107,14 +99,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,6 +133,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5FD41E8-AA81-4C06-8A74-0BA72CD09B14}" name="Tableau2" displayName="Tableau2" ref="D8:F22" totalsRowShown="0">
+  <autoFilter ref="D8:F22" xr:uid="{C5FD41E8-AA81-4C06-8A74-0BA72CD09B14}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9B61F905-CC98-46F2-90BC-720B1A4084A3}" name="Action effectuée"/>
+    <tableColumn id="2" xr3:uid="{8BDBBF48-4557-48F3-8537-8EBACA3B5E59}" name="Résultat attendu"/>
+    <tableColumn id="3" xr3:uid="{A79C1E3C-767D-4B25-8B86-1EA3C0D309FB}" name="Résultat obtenu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,59 +444,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D944D000-6100-4BF9-8EA9-1B2AEDF837AE}">
-  <dimension ref="D6:F10"/>
+  <dimension ref="D8:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="4" max="4" width="30.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.47265625" customWidth="1"/>
+    <col min="6" max="6" width="14.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="1" t="s">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/liste des test.xlsx
+++ b/liste des test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seemt\Desktop\HEIG-VD\Semestre3\POO\Labo\Labo8\Labo8\POO-Labo_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D0258-7A21-4390-90C6-4065389DA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC871D49-4C69-4EE2-9512-FFB0A52898D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{477B09BC-C81F-481D-B86E-8C2C2F190558}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test déplacement pion</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Résultat obtenu</t>
+  </si>
+  <si>
+    <t>Déplacement des pions</t>
   </si>
 </sst>
 </file>
@@ -444,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D944D000-6100-4BF9-8EA9-1B2AEDF837AE}">
-  <dimension ref="D8:F12"/>
+  <dimension ref="D7:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -457,6 +460,11 @@
     <col min="6" max="6" width="14.9453125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
         <v>4</v>

--- a/liste des test.xlsx
+++ b/liste des test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seemt\Desktop\HEIG-VD\Semestre3\POO\Labo\Labo8\Labo8\POO-Labo_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC871D49-4C69-4EE2-9512-FFB0A52898D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0A023F-6F20-4B4D-88B1-43EEC0BEF073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{477B09BC-C81F-481D-B86E-8C2C2F190558}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Test déplacement pion</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Avancer un pion de 2 au premier coup</t>
   </si>
   <si>
-    <t>Avancer un pion de 1 puit de 2</t>
-  </si>
-  <si>
     <t>Action effectuée</t>
   </si>
   <si>
@@ -58,6 +55,60 @@
   </si>
   <si>
     <t>Déplacement des pions</t>
+  </si>
+  <si>
+    <t>Avancer un pion ayant déjà été déplacé de 2</t>
+  </si>
+  <si>
+    <t>Avancer le pion de plus que 2 au premier cou</t>
+  </si>
+  <si>
+    <t>Avancer le pion de plus que 1 après le premier coup</t>
+  </si>
+  <si>
+    <t>Avancer le pion en diagonale sur une case vide sans prise en passant</t>
+  </si>
+  <si>
+    <t>Avancer le pion en diagonale sur une case avec une pièce adverse dessus</t>
+  </si>
+  <si>
+    <t>Avancer le pion de 1 ou 2 sur une case occupée</t>
+  </si>
+  <si>
+    <t>Test de la dame</t>
+  </si>
+  <si>
+    <t>Déplacer la dame de 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déplacement dela dame de 1 sur toutes les cases autour d'elle (cases vide) </t>
+  </si>
+  <si>
+    <t>déplacement de la dame de n cases dans toute les direction (sans pièce dans le chemin)</t>
+  </si>
+  <si>
+    <t>Déplacemen de la dame sur une case contenant une pièce alliée</t>
+  </si>
+  <si>
+    <t>Déplacement de la dame sur un case contenant une pièce ennemie</t>
+  </si>
+  <si>
+    <t>Déplacement de la dame de n cases, mais avec une pièce quelconque entre elle est la case d'arrivée</t>
+  </si>
+  <si>
+    <t>La pièce est déplacée</t>
+  </si>
+  <si>
+    <t>La dame est déplacée et la pièce sur la case d'arrivée est supprimée</t>
+  </si>
+  <si>
+    <t>La dame ne bouge pas</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>OUI</t>
   </si>
 </sst>
 </file>
@@ -117,15 +168,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -142,9 +207,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C5FD41E8-AA81-4C06-8A74-0BA72CD09B14}" name="Tableau2" displayName="Tableau2" ref="D8:F22" totalsRowShown="0">
   <autoFilter ref="D8:F22" xr:uid="{C5FD41E8-AA81-4C06-8A74-0BA72CD09B14}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9B61F905-CC98-46F2-90BC-720B1A4084A3}" name="Action effectuée"/>
+    <tableColumn id="1" xr3:uid="{9B61F905-CC98-46F2-90BC-720B1A4084A3}" name="Action effectuée" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{8BDBBF48-4557-48F3-8537-8EBACA3B5E59}" name="Résultat attendu"/>
     <tableColumn id="3" xr3:uid="{A79C1E3C-767D-4B25-8B86-1EA3C0D309FB}" name="Résultat obtenu"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AF5210FE-3185-4C3A-805B-2BDF6B6BB0E8}" name="Tableau25" displayName="Tableau25" ref="D28:F42" totalsRowShown="0">
+  <autoFilter ref="D28:F42" xr:uid="{AF5210FE-3185-4C3A-805B-2BDF6B6BB0E8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D74BD468-108B-423D-8B5F-87EADC74E12D}" name="Action effectuée" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EEF9CF7A-0846-4D59-A7CE-EB6FFDA6209F}" name="Résultat attendu"/>
+    <tableColumn id="3" xr3:uid="{97427AE6-B749-4EC0-B551-472202EF407A}" name="Résultat obtenu"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -447,59 +524,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D944D000-6100-4BF9-8EA9-1B2AEDF837AE}">
-  <dimension ref="D7:F12"/>
+  <dimension ref="D7:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="30.734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.47265625" customWidth="1"/>
+    <col min="4" max="4" width="32.3125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.47265625" customWidth="1"/>
     <col min="6" max="6" width="14.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D7" t="s">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D8" t="s">
+    <row r="13" spans="4:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="2" t="s">
-        <v>3</v>
+    </row>
+    <row r="29" spans="4:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>